--- a/GameData/TestData1.xlsx
+++ b/GameData/TestData1.xlsx
@@ -12,8 +12,9 @@
     <workbookView xWindow="7680" yWindow="4035" windowWidth="28140" windowHeight="14970" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="HeroTable" sheetId="4" r:id="rId1"/>
-    <sheet name="HeroSkillTable" sheetId="1" r:id="rId2"/>
+    <sheet name="_TeDataTable" sheetId="5" r:id="rId1"/>
+    <sheet name="_HeroTable" sheetId="4" r:id="rId2"/>
+    <sheet name="HeroSkillTable" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,6 +31,71 @@
     <author>서의정</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서의정</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스킬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">아이디
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -71,66 +137,160 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>영웅</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>명칭
-내부</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>데이터
-컨버팅</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>제외</t>
+          <t>타이핑</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>미션</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스트링</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>테이블의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이디
+스트링</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>양이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>많아</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>별도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분리</t>
         </r>
       </text>
     </comment>
@@ -175,16 +335,26 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>성의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> hp</t>
+          <t>스킬의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>속성</t>
         </r>
       </text>
     </comment>
@@ -219,94 +389,56 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
+sec </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기준
 </t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>영웅이</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>소유한</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>고유</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스킬
-최대</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 4</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>개</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1000 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분율</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적용</t>
         </r>
       </text>
     </comment>
@@ -320,6 +452,296 @@
     <author>서의정</author>
   </authors>
   <commentList>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서의정</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>영웅</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>명칭
+내부</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데이터
+컨버팅</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제외</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서의정</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>성의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> hp</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서의정</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>영웅이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>소유한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고유</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스킬
+최대</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>개</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>서의정</author>
+  </authors>
+  <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -736,7 +1158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -1308,9 +1730,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="C6:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.875" style="1" customWidth="1"/>
+    <col min="2" max="5" width="8.75" style="1"/>
+    <col min="6" max="6" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
@@ -1423,11 +1948,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>

--- a/GameData/TestData1.xlsx
+++ b/GameData/TestData1.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="4035" windowWidth="28140" windowHeight="14970" activeTab="1"/>
+    <workbookView xWindow="7680" yWindow="4035" windowWidth="28140" windowHeight="14970"/>
   </bookViews>
   <sheets>
-    <sheet name="_TeDataTable" sheetId="5" r:id="rId1"/>
+    <sheet name="TestDataTable" sheetId="5" r:id="rId1"/>
     <sheet name="_HeroTable" sheetId="4" r:id="rId2"/>
     <sheet name="HeroSkillTable" sheetId="1" r:id="rId3"/>
   </sheets>
@@ -1158,7 +1158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -1264,6 +1264,18 @@
   </si>
   <si>
     <t>InGame/Character/E_High_Archer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_skill_typing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_skill_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1732,8 +1744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="C6:D6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1749,13 +1761,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>12</v>
@@ -1835,7 +1847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
